--- a/data/trans_media/Q47-Edad-trans_media.xlsx
+++ b/data/trans_media/Q47-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>175,43; 176,63</t>
+          <t>175,46; 176,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>175,22; 176,59</t>
+          <t>175,17; 176,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>175,82; 177,09</t>
+          <t>175,79; 177,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>162,73; 163,86</t>
+          <t>162,74; 163,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>162,69; 163,96</t>
+          <t>162,7; 163,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>162,75; 163,97</t>
+          <t>162,78; 163,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>169,25; 170,42</t>
+          <t>169,31; 170,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169,19; 170,5</t>
+          <t>169,13; 170,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>169,45; 170,73</t>
+          <t>169,36; 170,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>175,28; 176,33</t>
+          <t>175,26; 176,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>175,54; 176,61</t>
+          <t>175,6; 176,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>175,84; 177,03</t>
+          <t>175,77; 177,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>163,02; 164,01</t>
+          <t>163,01; 164,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>163,13; 164,23</t>
+          <t>163,11; 164,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>163,31; 164,3</t>
+          <t>163,26; 164,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>169,62; 170,6</t>
+          <t>169,66; 170,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>169,78; 170,89</t>
+          <t>169,73; 170,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>169,71; 170,78</t>
+          <t>169,66; 170,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>174,01; 175,02</t>
+          <t>173,98; 175,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>174,29; 175,37</t>
+          <t>174,31; 175,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>175,04; 176,16</t>
+          <t>174,97; 176,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>161,66; 162,69</t>
+          <t>161,65; 162,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>161,43; 162,44</t>
+          <t>161,4; 162,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>162,6; 163,59</t>
+          <t>162,62; 163,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>167,6; 168,55</t>
+          <t>167,59; 168,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>167,74; 168,68</t>
+          <t>167,7; 168,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>168,85; 169,82</t>
+          <t>168,79; 169,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>172,53; 173,73</t>
+          <t>172,55; 173,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172,23; 173,34</t>
+          <t>172,28; 173,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>173,58; 174,81</t>
+          <t>173,59; 174,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>159,85; 160,97</t>
+          <t>159,86; 160,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>160,28; 161,33</t>
+          <t>160,22; 161,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>161,46; 162,63</t>
+          <t>161,47; 162,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,29; 167,39</t>
+          <t>166,23; 167,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,29; 167,36</t>
+          <t>166,3; 167,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>167,58; 168,68</t>
+          <t>167,55; 168,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>168,47; 169,94</t>
+          <t>168,48; 169,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>169,2; 170,39</t>
+          <t>169,12; 170,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>170,87; 172,27</t>
+          <t>170,89; 172,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>158,23; 159,45</t>
+          <t>158,21; 159,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>158,51; 159,62</t>
+          <t>158,55; 159,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>158,33; 159,52</t>
+          <t>158,33; 159,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>163,35; 164,56</t>
+          <t>163,28; 164,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>163,75; 164,9</t>
+          <t>163,74; 164,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>164,6; 165,84</t>
+          <t>164,53; 165,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>167,28; 168,36</t>
+          <t>167,29; 168,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>167,27; 168,58</t>
+          <t>167,31; 168,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>168,35; 169,46</t>
+          <t>168,28; 169,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>156,49; 157,48</t>
+          <t>156,42; 157,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>157,4; 158,42</t>
+          <t>157,39; 158,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>157,61; 158,71</t>
+          <t>157,58; 158,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>161,12; 162,09</t>
+          <t>161,17; 162,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>161,88; 162,85</t>
+          <t>161,85; 162,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>162,45; 163,41</t>
+          <t>162,41; 163,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>172,85; 173,36</t>
+          <t>172,88; 173,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>173,58; 174,13</t>
+          <t>173,59; 174,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>160,66; 161,12</t>
+          <t>160,64; 161,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>160,82; 161,29</t>
+          <t>160,8; 161,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>161,21; 161,68</t>
+          <t>161,22; 161,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>166,71; 167,2</t>
+          <t>166,71; 167,17</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>166,8; 167,29</t>
+          <t>166,78; 167,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>167,32; 167,79</t>
+          <t>167,3; 167,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
